--- a/src/data_generation_and_evaluation/tables_and_graphs/driver_characters.xlsx
+++ b/src/data_generation_and_evaluation/tables_and_graphs/driver_characters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/140de8c66c567656/Dokumente/03_Master/06_Kurse/07_UniTrento/02_Data_Mining/03_github/src/data_generation_and_evaluation/tables_and_graphs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\OneDrive\Dokumente\03_Master\06_Kurse\07_UniTrento\02_Data_Mining\03_github\src\data_generation_and_evaluation\tables_and_graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{4684DF4A-0D6B-4191-AF0B-F55C15662FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4280583E-D7B9-47C7-A654-247C830EC7B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB84F75-9A40-4572-808A-E90A6034BE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{0B9F1EE1-9D19-4139-BCDA-88B6BBDBD349}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0B9F1EE1-9D19-4139-BCDA-88B6BBDBD349}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="41">
   <si>
     <t>likes short routes</t>
   </si>
@@ -108,13 +108,67 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>City 1</t>
+  </si>
+  <si>
+    <t>Product 1</t>
+  </si>
+  <si>
+    <t>Product 2</t>
+  </si>
+  <si>
+    <t>City 2</t>
+  </si>
+  <si>
+    <t>City 3</t>
+  </si>
+  <si>
+    <t>Trento</t>
+  </si>
+  <si>
+    <t>Padova</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +201,29 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,11 +241,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,30 +291,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -437,6 +548,25 @@
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -451,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08C1DF55-9E21-48C9-85A9-13E925A5B0B1}" name="Tabelle1" displayName="Tabelle1" ref="A1:K11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08C1DF55-9E21-48C9-85A9-13E925A5B0B1}" name="Tabelle1" displayName="Tabelle1" ref="A1:K11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K11" xr:uid="{08C1DF55-9E21-48C9-85A9-13E925A5B0B1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -466,17 +596,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A0528121-B089-4AA8-879A-B84146983D26}" name="Driver" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3C2E49FE-DE24-415D-A81C-3A85232EF510}" name="likes short routes" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{1DBE90B7-4AAC-4F0D-9D49-DF55544B6893}" name="likes long routes" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B23AC081-16CD-4E4D-9124-6E281B6E4AA1}" name="likes a city" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{951AF770-8F23-47D5-964E-905E407AD524}" name="dislikes a city" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{59EDCE6D-8B91-4FC5-9DB0-B21BA2F8661F}" name="likes few products" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B5979E86-D800-4BCD-AC9A-911B326C38E9}" name="likes many products" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{7824B04A-499E-4FC6-8F16-6BFB7DB4F851}" name="likes a product" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{1CAF8F19-1F7A-469A-98C0-CE6CD810655F}" name="dislikes a product" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{CBEB15E2-4125-443B-B01A-C85E175E9BE7}" name="likes high quantities" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{0CED2189-2C9F-402D-A487-230C1C0B9CF7}" name="likes low quantities" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A0528121-B089-4AA8-879A-B84146983D26}" name="Driver" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3C2E49FE-DE24-415D-A81C-3A85232EF510}" name="likes short routes" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1DBE90B7-4AAC-4F0D-9D49-DF55544B6893}" name="likes long routes" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B23AC081-16CD-4E4D-9124-6E281B6E4AA1}" name="likes a city" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{951AF770-8F23-47D5-964E-905E407AD524}" name="dislikes a city" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{59EDCE6D-8B91-4FC5-9DB0-B21BA2F8661F}" name="likes few products" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B5979E86-D800-4BCD-AC9A-911B326C38E9}" name="likes many products" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7824B04A-499E-4FC6-8F16-6BFB7DB4F851}" name="likes a product" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{1CAF8F19-1F7A-469A-98C0-CE6CD810655F}" name="dislikes a product" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{CBEB15E2-4125-443B-B01A-C85E175E9BE7}" name="likes high quantities" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{0CED2189-2C9F-402D-A487-230C1C0B9CF7}" name="likes low quantities" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66883BA5-CE6E-4865-B347-7CBD7EF37B7B}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,9 +925,11 @@
     <col min="8" max="8" width="6.77734375" customWidth="1"/>
     <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -832,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -866,8 +998,26 @@
       <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -901,8 +1051,26 @@
       <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -936,8 +1104,26 @@
       <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -972,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1007,7 +1193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1042,7 +1228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1111,8 +1297,29 @@
       <c r="K9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1146,8 +1353,29 @@
       <c r="K10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1179,6 +1407,412 @@
         <v>11</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/data_generation_and_evaluation/tables_and_graphs/driver_characters.xlsx
+++ b/src/data_generation_and_evaluation/tables_and_graphs/driver_characters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\OneDrive\Dokumente\03_Master\06_Kurse\07_UniTrento\02_Data_Mining\03_github\src\data_generation_and_evaluation\tables_and_graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/140de8c66c567656/Dokumente/03_Master/06_Kurse/07_UniTrento/02_Data_Mining/03_github/src/data_generation_and_evaluation/tables_and_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB84F75-9A40-4572-808A-E90A6034BE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FEB84F75-9A40-4572-808A-E90A6034BE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E2B51F-3727-4106-AB34-16E5945D8D01}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0B9F1EE1-9D19-4139-BCDA-88B6BBDBD349}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0B9F1EE1-9D19-4139-BCDA-88B6BBDBD349}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,9 +300,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66883BA5-CE6E-4865-B347-7CBD7EF37B7B}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,25 +1294,25 @@
       <c r="K9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1353,25 +1350,25 @@
       <c r="K10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1409,410 +1406,410 @@
       <c r="K11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="12" t="s">
+      <c r="B21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>10</v>
       </c>
     </row>
